--- a/CHAOTIC.xlsx
+++ b/CHAOTIC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB\Documents\GitHub\Multi-Strategy-Enhanced-Whale-Optimization-Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B14E45-58F4-4F67-B580-D0704A470FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38484B52-0AA8-45EE-8F18-BEAFBCC51D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="40">
   <si>
     <t>F1</t>
   </si>
@@ -139,12 +139,16 @@
     <t>paper</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>Uniform</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -316,6 +320,24 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -747,15 +769,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -764,6 +780,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,4934 +1154,5349 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79:I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <v>1.1188468694131699E-199</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
         <v>1.82018131595443E-199</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="8">
         <v>6.9462813972549203E-3</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
         <v>2.51945012710445E-4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>-12569.481825132199</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
         <v>3.66188023623104E-6</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="4">
         <v>1.9109007245190199E-5</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="3">
         <v>0.99800383941187998</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="2">
         <v>4.6727236898522402E-4</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="3">
         <v>-1.03162754433482</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="3">
         <v>0.39967510020089297</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="3">
         <v>3.5420525196561301</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="3">
         <v>-3.8619642326095001</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="8">
         <v>-3.2646954377091499</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="7">
         <v>-10.1518222031867</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="8">
         <v>-10.4019356797981</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="3">
         <v>-10.535695147706001</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>0.36531228065490701</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.36788161754608101</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0.523115034103393</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0.36288593769073402</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>0.372435545921325</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>0.40430327415466299</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>0.40393934726714997</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>0.37451300621032702</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>0.37156983852386399</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>0.38117541790008502</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="3">
         <v>0.38326397418975799</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="3">
         <v>0.44232458591461099</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3">
         <v>0.42929940223693802</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="3">
         <v>1.02666078567504</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="3">
         <v>0.868818502426147</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="3">
         <v>0.35060466289520198</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="3">
         <v>0.34344063758850002</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="3">
         <v>0.35547667980193998</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="3">
         <v>1.7344532489776601</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="3">
         <v>1.7274703598022401</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="3">
         <v>1.0187857723236</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="3">
         <v>1.27401518821716</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3" s="3">
         <v>1.6684146785736</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
         <v>5.5449310084697801E-198</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <v>8.60067939661243E-198</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>0.120839616015157</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>1.0124111412784301E-3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>-12569.4413960723</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
         <v>1.9518346700073098E-5</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="3">
         <v>2.5992992773431802E-4</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="3">
         <v>0.99800387719398598</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="3">
         <v>1.6744331848588499E-3</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="3">
         <v>-1.03161708836947</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="3">
         <v>0.486567631755569</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="3">
         <v>30.0000432090666</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="3">
         <v>-3.8525879502752698</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="3">
         <v>-3.08043027623048</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="3">
         <v>-10.139723451534</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="3">
         <v>-10.387748064625301</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="3">
         <v>-10.524924105273699</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
         <v>1.50589287696831E-225</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>2.3609248596584599E-228</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>3.85700227580038E-26</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>9.6617831828441299E-6</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>-12569.486618172999</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
         <v>1.89870756523488E-24</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="4">
         <v>2.55584609078939E-27</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="3">
         <v>0.99800383779444901</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="3">
         <v>3.0868838076221201E-4</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="3">
         <v>-1.03162845348966</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="3">
         <v>0.39788735884007598</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="3">
         <v>3.0000000000004401</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="3">
         <v>-3.8627811659543698</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="3">
         <v>-3.32174660789889</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="3">
         <v>-10.153199275013201</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="3">
         <v>-10.402934725196801</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="3">
         <v>-10.5363632152986</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>1.88020500544951E-2</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>2.3482453278347699E-4</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>9.1240814751379195E-3</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
         <v>5.2673776447331701E-6</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="4">
         <v>4.2748138041211801E-5</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="4">
         <v>7.1937131175779298E-9</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="3">
         <v>3.1966531194365099E-4</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="4">
         <v>2.1719300776240601E-6</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="4">
         <v>1.24132906662009E-2</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="3">
         <v>3.7797372404446898</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="3">
         <v>1.8400326881264999E-3</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="3">
         <v>7.8996275060288307E-2</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="3">
         <v>2.6787256485670801E-3</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="3">
         <v>2.3463533640033802E-3</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="3">
         <v>1.70814526325097E-3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="X8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
         <v>2.1165222978735099E-200</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
         <v>2.1309040972616801E-200</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="7">
         <v>7.8060780342864402E-3</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
         <v>2.2334718594397499E-4</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="3">
         <v>-12569.4842127834</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
         <v>2.13739299436485E-6</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="4">
         <v>1.7034936996604201E-5</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="3">
         <v>0.99800384128872599</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="3">
         <v>4.4032475647387401E-4</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="3">
         <v>-1.0316281029338299</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="3">
         <v>0.39790065819329701</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="3">
         <v>3.0007305438046701</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="3">
         <v>-3.8619992427782401</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="3">
         <v>-3.2925325546530599</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="8">
         <v>-10.1520217049483</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="7">
         <v>-10.4018881613865</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9" s="8">
         <v>-10.535435877546</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>0.37390522480010902</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>0.37957031250000001</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>0.53318968296050995</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>0.36958351135253897</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>0.38147524356842</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <v>0.41483605861663803</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3">
         <v>0.41088605403900103</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="3">
         <v>0.38462539672851498</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="3">
         <v>0.381605658531188</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="3">
         <v>0.39151375770568803</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="3">
         <v>0.395652937889099</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="3">
         <v>0.45181104660034099</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="3">
         <v>0.44092192173004102</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="3">
         <v>1.0617272567749001</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="3">
         <v>0.89932363033294604</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="3">
         <v>0.36017825603485099</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="3">
         <v>0.356208300590515</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="3">
         <v>0.36627866744995102</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="3">
         <v>1.7852112007141101</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="3">
         <v>1.79951565742492</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="3">
         <v>1.0532951164245601</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="3">
         <v>1.3165819883346499</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10" s="3">
         <v>1.71125615596771</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
         <v>1.01545342283083E-198</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
         <v>1.0525102070953801E-198</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>9.2178433008718905E-2</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
         <v>1.49651153153864E-3</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>-12569.4685659426</v>
       </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
         <v>1.6729921119133701E-5</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="3">
         <v>1.12481945144938E-4</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="3">
         <v>0.99800392815365002</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="3">
         <v>1.6744331148116E-3</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="3">
         <v>-1.03162203533119</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="3">
         <v>0.39801659627372199</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="3">
         <v>3.0351164104900801</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="3">
         <v>-3.8594377964758002</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="3">
         <v>-3.0866812650070301</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="3">
         <v>-10.1422367576812</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="3">
         <v>-10.375834371833101</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X11" s="3">
         <v>-10.5150613479118</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
         <v>6.3620168434302397E-228</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
         <v>8.4226401310790999E-229</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>3.4540533451896602E-22</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
         <v>1.6085416229564001E-6</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="3">
         <v>-12569.486618172999</v>
       </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
         <v>4.8698469472227599E-17</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="4">
         <v>1.13707341609074E-27</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="3">
         <v>0.99800383779444901</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="3">
         <v>3.0897619593010897E-4</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="3">
         <v>-1.03162845342114</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="3">
         <v>0.39788735776741102</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="3">
         <v>3.0000000000051199</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="3">
         <v>-3.86278158473639</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="3">
         <v>-3.3219829660887399</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="3">
         <v>-10.153199232915799</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12" s="3">
         <v>-10.402934576657801</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X12" s="3">
         <v>-10.536394797236801</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
         <v>1.5871936525979201E-2</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
         <v>2.6753405303726001E-4</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>4.3754126123997199E-3</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
         <v>3.3225898786695398E-6</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="4">
         <v>2.61896386792795E-5</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="4">
         <v>1.36195970481354E-8</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="3">
         <v>2.2040442241790201E-4</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="4">
         <v>9.6264151857444096E-7</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="4">
         <v>2.3871074485454401E-5</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="3">
         <v>4.9137273306301002E-3</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="3">
         <v>8.79820849836429E-4</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="3">
         <v>6.3293274340521996E-2</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="3">
         <v>2.52499707700834E-3</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13" s="3">
         <v>3.8706987387346898E-3</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X13" s="3">
         <v>3.0902401227958201E-3</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="X15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
         <v>2.4176120288341499E-194</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
         <v>1.5083185312561801E-197</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>2.6182903965344699E-3</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
         <v>2.09102626180427E-4</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="2">
         <v>-12569.4756986184</v>
       </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
         <v>3.8607600811158299E-6</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="5">
         <v>2.85187190298234E-5</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="7">
         <v>0.99800385755157905</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="3">
         <v>4.9431004066078895E-4</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="3">
         <v>-1.0316278468464799</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="3">
         <v>0.39789915131587</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="2">
         <v>4.0802181074603903</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="3">
         <v>-3.8620415516751798</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="3">
         <v>-3.2748873870074799</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="3">
         <v>-10.152587311756999</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16" s="3">
         <v>-10.402093947654601</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16" s="3">
         <v>-10.535503062233801</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>0.38672341823577799</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>0.39131470680236802</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>0.55422069072723301</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>0.382934827804565</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>0.39686210155487001</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
         <v>0.43607671260833702</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="3">
         <v>0.42967042922973597</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <v>0.40772223472595198</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="3">
         <v>0.39852474212646399</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="3">
         <v>0.40691122055053702</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="3">
         <v>0.41165677547454799</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="3">
         <v>0.470639810562133</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="3">
         <v>0.46129795074462798</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="3">
         <v>1.1107626247405999</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="3">
         <v>0.94404906749725304</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="3">
         <v>0.38145015716552699</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="3">
         <v>0.37446281433105399</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="3">
         <v>0.38623335838317802</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="3">
         <v>1.87158562660217</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="3">
         <v>1.8953828525543199</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="3">
         <v>1.0861293840408299</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17" s="3">
         <v>1.38272909641265</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17" s="3">
         <v>1.79517691612243</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
         <v>1.20847497312199E-192</v>
       </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
         <v>5.0553179820864105E-196</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
         <v>2.3009462915345998E-2</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>1.4602482932440099E-3</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="3">
         <v>-12569.136481896099</v>
       </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
         <v>4.2290571480371702E-5</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="3">
         <v>2.62992497506601E-4</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="3">
         <v>0.998004762006371</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="3">
         <v>1.6744331326604099E-3</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="3">
         <v>-1.03162319401972</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="3">
         <v>0.39795436322505001</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="3">
         <v>30.0095791003241</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18" s="3">
         <v>-3.8589808145470399</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="3">
         <v>-3.0846151946054898</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="3">
         <v>-10.146741174342999</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18" s="3">
         <v>-10.396604932291099</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18" s="3">
         <v>-10.522323625280899</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
         <v>3.9837995408481802E-231</v>
       </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
         <v>1.1152325830195399E-231</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="4">
         <v>7.2150697505711E-27</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
         <v>9.6617831828441299E-6</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="3">
         <v>-12569.486618172999</v>
       </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
         <v>2.7953007732486702E-19</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="4">
         <v>1.38257933203898E-23</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="3">
         <v>0.99800383779444901</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="3">
         <v>3.0799083766133099E-4</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="3">
         <v>-1.03162845348805</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="3">
         <v>0.39788735785699197</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="3">
         <v>3.00000000011728</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="3">
         <v>-3.8627817817804999</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="3">
         <v>-3.3218966054874599</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="3">
         <v>-10.153199227019799</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19" s="3">
         <v>-10.402889595938101</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19" s="3">
         <v>-10.536381711108101</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>5.2992782542196299E-3</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>2.3084307338733001E-4</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="3">
         <v>4.9413176288388101E-2</v>
       </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
         <v>6.6928945378543698E-6</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="4">
         <v>5.3823266936294903E-5</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="4">
         <v>1.2942213595330201E-7</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="3">
         <v>3.30065485067166E-4</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="4">
         <v>1.26946604547084E-6</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="4">
         <v>1.50564078918634E-5</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="3">
         <v>5.2918315397855</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20" s="3">
         <v>9.3616954729692798E-4</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="3">
         <v>7.3759378739287396E-2</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="3">
         <v>1.1653388412568499E-3</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20" s="3">
         <v>1.3152082829432799E-3</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X20" s="3">
         <v>2.24143577890531E-3</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="S22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="V22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="X22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
         <v>4.7184776330633E-193</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
         <v>1.01426080535102E-197</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>2.0615351465377999E-3</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>1.92887053376442E-4</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="3">
         <v>-12569.4832454471</v>
       </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
         <v>2.3295290486919901E-6</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="4">
         <v>2.3333276544455401E-5</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="3">
         <v>0.99800383800401304</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="3">
         <v>5.0216242904429099E-4</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="8">
         <v>-1.0316274513138299</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="3">
         <v>0.39790415758175601</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="3">
         <v>3.5412759104876699</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23" s="8">
         <v>-3.86194429463221</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="3">
         <v>-3.2690799644517199</v>
       </c>
-      <c r="V23" s="4">
+      <c r="V23" s="2">
         <v>-10.1515321984084</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23" s="3">
         <v>-10.402420765512099</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23" s="3">
         <v>-10.5355679517517</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>0.36591707229614201</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>0.37577999114990202</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>0.53742452144622799</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
         <v>0.37129107952117901</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="3">
         <v>0.38367543220520001</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="3">
         <v>0.412077555656433</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="3">
         <v>0.40881877422332702</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="3">
         <v>0.38317283153533899</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="3">
         <v>0.38076332092285098</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="3">
         <v>0.39097849369048998</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="3">
         <v>0.39337424755096401</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="3">
         <v>0.447606792449951</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="3">
         <v>0.43707626819610501</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="3">
         <v>1.0582874441146799</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="3">
         <v>0.89862803459167395</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="3">
         <v>0.35781466960906899</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="3">
         <v>0.35580742359161299</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="3">
         <v>0.36787450313568099</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24" s="3">
         <v>1.78694603919982</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="3">
         <v>1.7973783493041899</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V24" s="3">
         <v>1.0459593343734701</v>
       </c>
-      <c r="W24" s="1">
+      <c r="W24" s="3">
         <v>1.3289506483078</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24" s="3">
         <v>1.7420427227020201</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
         <v>2.35923811592254E-191</v>
       </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
         <v>5.0553179820864105E-196</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <v>3.9723687077833303E-2</v>
       </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
         <v>6.5484941109450695E-4</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="3">
         <v>-12569.440581263299</v>
       </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
         <v>2.2692293834893299E-5</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="3">
         <v>4.2366094573815599E-4</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="3">
         <v>0.99800384031503897</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="3">
         <v>1.67443313277086E-3</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="3">
         <v>-1.03161253582149</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="3">
         <v>0.39814056427558397</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="3">
         <v>30.0000090453768</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T25" s="3">
         <v>-3.8577348229205901</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25" s="3">
         <v>-3.0866768611442001</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V25" s="3">
         <v>-10.1157565913852</v>
       </c>
-      <c r="W25" s="1">
+      <c r="W25" s="3">
         <v>-10.396647164141299</v>
       </c>
-      <c r="X25" s="1">
+      <c r="X25" s="3">
         <v>-10.526850440714799</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
         <v>1.6826752954388599E-231</v>
       </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
         <v>1.7157326234562299E-233</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="4">
         <v>4.48053716377163E-25</v>
       </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
         <v>9.6617831828441299E-6</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="3">
         <v>-12569.486618172999</v>
       </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
         <v>3.4338108819584502E-26</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="4">
         <v>2.6420192844079701E-27</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="3">
         <v>0.99800383779444901</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="3">
         <v>3.0795653660166801E-4</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="3">
         <v>-1.03162845348745</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="3">
         <v>0.39788736273720898</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="3">
         <v>3.0000000000006701</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T26" s="3">
         <v>-3.8627795139675198</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U26" s="3">
         <v>-3.3219357277491599</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V26" s="3">
         <v>-10.1531995675041</v>
       </c>
-      <c r="W26" s="1">
+      <c r="W26" s="3">
         <v>-10.402937039335001</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X26" s="3">
         <v>-10.5363903474137</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>6.1029053375495201E-3</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>1.7660819530919701E-4</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="3">
         <v>8.0142011469496906E-3</v>
       </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
         <v>4.5788498290753803E-6</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="4">
         <v>6.1737796994086404E-5</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="4">
         <v>4.8718740670404001E-10</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="3">
         <v>3.9674942086215801E-4</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="4">
         <v>2.7184621198659601E-6</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="4">
         <v>3.76260170267026E-5</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="3">
         <v>3.7798287148926599</v>
       </c>
-      <c r="T27" s="1">
+      <c r="T27" s="3">
         <v>1.0637589727501701E-3</v>
       </c>
-      <c r="U27" s="1">
+      <c r="U27" s="3">
         <v>7.8746883755995895E-2</v>
       </c>
-      <c r="V27" s="1">
+      <c r="V27" s="3">
         <v>5.4555933178158898E-3</v>
       </c>
-      <c r="W27" s="1">
+      <c r="W27" s="3">
         <v>1.0350081836758701E-3</v>
       </c>
-      <c r="X27" s="1">
+      <c r="X27" s="3">
         <v>1.6469912995792501E-3</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="P29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="Q29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="R29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="S29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="T29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="U29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="V29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="X29" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
         <v>2.25034586104334E-196</v>
       </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
         <v>1.03588869629096E-199</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="3">
         <v>5.49432837379205E-3</v>
       </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
         <v>2.0592999845880401E-4</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="3">
         <v>-12569.482374729499</v>
       </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
         <v>2.6444981508048902E-6</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="4">
         <v>2.6155501979875801E-5</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="8">
         <v>0.99800384544389598</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="3">
         <v>4.4959866860371498E-4</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="3">
         <v>-1.0316274827901</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="8">
         <v>0.40684077985546202</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30" s="7">
         <v>4.0800440129757396</v>
       </c>
-      <c r="T30" s="1">
+      <c r="T30" s="3">
         <v>-3.8621414796572702</v>
       </c>
-      <c r="U30" s="1">
+      <c r="U30" s="3">
         <v>-3.2790549666190598</v>
       </c>
-      <c r="V30" s="1">
+      <c r="V30" s="3">
         <v>-10.1525900198895</v>
       </c>
-      <c r="W30" s="1">
+      <c r="W30" s="3">
         <v>-10.4022539069682</v>
       </c>
-      <c r="X30" s="1">
+      <c r="X30" s="3">
         <v>-10.5354905596273</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>0.38587342739105202</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>0.39030212879180898</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="3">
         <v>0.55940834999084399</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <v>0.399102187156677</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="3">
         <v>0.39038650989532397</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="3">
         <v>0.41775871276855397</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="3">
         <v>0.41569016456604002</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="3">
         <v>0.391820282936096</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="3">
         <v>0.39836951255798297</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="3">
         <v>0.40253798007965003</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="3">
         <v>0.39962844371795597</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="3">
         <v>0.46321024894714302</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31" s="3">
         <v>0.45695812225341798</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="3">
         <v>1.0961096334457301</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="3">
         <v>0.91053516864776596</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="3">
         <v>0.36322664737701399</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="3">
         <v>0.35909122943878102</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="3">
         <v>0.37333493232727</v>
       </c>
-      <c r="T31" s="1">
+      <c r="T31" s="3">
         <v>1.84003289222717</v>
       </c>
-      <c r="U31" s="1">
+      <c r="U31" s="3">
         <v>1.86953505039215</v>
       </c>
-      <c r="V31" s="1">
+      <c r="V31" s="3">
         <v>1.0909623813629099</v>
       </c>
-      <c r="W31" s="1">
+      <c r="W31" s="3">
         <v>1.3596828269958401</v>
       </c>
-      <c r="X31" s="1">
+      <c r="X31" s="3">
         <v>1.78101622104644</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
         <v>1.12471164630428E-194</v>
       </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
         <v>5.1649929226653901E-198</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="3">
         <v>6.6418834021907194E-2</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>8.63065612413097E-4</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="3">
         <v>-12569.4265032528</v>
       </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
         <v>4.2139447830113099E-5</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32" s="3">
         <v>3.5072586520663E-4</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="3">
         <v>0.99800416140071402</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="3">
         <v>1.6744331326603999E-3</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="3">
         <v>-1.0316131334852301</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="3">
         <v>0.84467412964458</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="3">
         <v>30.000177005270402</v>
       </c>
-      <c r="T32" s="1">
+      <c r="T32" s="3">
         <v>-3.8555811844262702</v>
       </c>
-      <c r="U32" s="1">
+      <c r="U32" s="3">
         <v>-3.0967348793922</v>
       </c>
-      <c r="V32" s="1">
+      <c r="V32" s="3">
         <v>-10.146869709181001</v>
       </c>
-      <c r="W32" s="1">
+      <c r="W32" s="3">
         <v>-10.3889659294328</v>
       </c>
-      <c r="X32" s="1">
+      <c r="X32" s="3">
         <v>-10.520440608902801</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
         <v>1.39569526371093E-229</v>
       </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
         <v>6.3953076161060702E-234</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="4">
         <v>7.6319728782190896E-25</v>
       </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
         <v>1.66766932292617E-6</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="3">
         <v>-12569.486618172999</v>
       </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
         <v>1.0419987747559799E-20</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="4">
         <v>2.1271767789636799E-26</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="3">
         <v>0.99800383779444901</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="3">
         <v>3.0884444082212399E-4</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33" s="3">
         <v>-1.0316284534887701</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R33" s="3">
         <v>0.39788736229425697</v>
       </c>
-      <c r="S33" s="1">
+      <c r="S33" s="3">
         <v>3.00000000013224</v>
       </c>
-      <c r="T33" s="1">
+      <c r="T33" s="3">
         <v>-3.86278173402494</v>
       </c>
-      <c r="U33" s="1">
+      <c r="U33" s="3">
         <v>-3.3217180954001901</v>
       </c>
-      <c r="V33" s="1">
+      <c r="V33" s="3">
         <v>-10.1531991798912</v>
       </c>
-      <c r="W33" s="1">
+      <c r="W33" s="3">
         <v>-10.402913978899299</v>
       </c>
-      <c r="X33" s="1">
+      <c r="X33" s="3">
         <v>-10.536384423661399</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
         <v>1.4715661288167099E-2</v>
       </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
         <v>1.79401071245073E-4</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="3">
         <v>1.02173525668119E-2</v>
       </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2">
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
         <v>6.9242461253852501E-6</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="4">
         <v>5.8552773590930502E-5</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="4">
         <v>4.5318325729748898E-8</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34" s="3">
         <v>2.7489570395761501E-4</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="4">
         <v>3.08097172492495E-6</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="4">
         <v>6.2547627965761202E-2</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S34" s="3">
         <v>5.2909223303908401</v>
       </c>
-      <c r="T34" s="1">
+      <c r="T34" s="3">
         <v>1.2772759946672501E-3</v>
       </c>
-      <c r="U34" s="1">
+      <c r="U34" s="3">
         <v>6.8633973201243897E-2</v>
       </c>
-      <c r="V34" s="1">
+      <c r="V34" s="3">
         <v>1.32079896955692E-3</v>
       </c>
-      <c r="W34" s="1">
+      <c r="W34" s="3">
         <v>2.0089338649730698E-3</v>
       </c>
-      <c r="X34" s="1">
+      <c r="X34" s="3">
         <v>2.3970859297222898E-3</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="O36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="P36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="Q36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="R36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="S36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="T36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U36" s="1" t="s">
+      <c r="U36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="V36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="W36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="X36" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
         <v>6.7585481548387805E-201</v>
       </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
         <v>2.8981667930472802E-202</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="3">
         <v>3.5071543861636199E-3</v>
       </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
         <v>1.97772895803056E-4</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="7">
         <v>-12569.478835357901</v>
       </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L37" s="1">
-        <v>0</v>
-      </c>
-      <c r="M37" s="2">
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
         <v>3.6537422199960199E-6</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="1">
         <v>3.1463367313743698E-5</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37" s="3">
         <v>0.99800384331623904</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="7">
         <v>5.4384273570545901E-4</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q37" s="2">
         <v>-1.03162702903195</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R37" s="3">
         <v>0.397900776359074</v>
       </c>
-      <c r="S37" s="1">
+      <c r="S37" s="3">
         <v>3.5400317878369099</v>
       </c>
-      <c r="T37" s="1">
+      <c r="T37" s="3">
         <v>-3.8621660391383901</v>
       </c>
-      <c r="U37" s="1">
+      <c r="U37" s="3">
         <v>-3.2800770054253401</v>
       </c>
-      <c r="V37" s="1">
+      <c r="V37" s="3">
         <v>-10.1524856954681</v>
       </c>
-      <c r="W37" s="1">
+      <c r="W37" s="3">
         <v>-10.402262017037099</v>
       </c>
-      <c r="X37" s="4">
+      <c r="X37" s="2">
         <v>-10.5353299426153</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="3">
         <v>0.40359075069427403</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <v>0.40490539550781202</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="3">
         <v>0.58041625976562505</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="3">
         <v>0.40011314868927</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="3">
         <v>0.40685530185699398</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="3">
         <v>0.43353132247924803</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="3">
         <v>0.43533951759338302</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="3">
         <v>0.40863410949707002</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="3">
         <v>0.395025596618652</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="3">
         <v>0.41534755706787102</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="3">
         <v>0.42217793464660602</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="3">
         <v>0.47898422241210897</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38" s="3">
         <v>0.46732991695404003</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="3">
         <v>1.1097524070739699</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="3">
         <v>0.93938983440399104</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="3">
         <v>0.381098709106445</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="3">
         <v>0.37525101661682098</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="3">
         <v>0.38119790077209398</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38" s="3">
         <v>1.9042289066314599</v>
       </c>
-      <c r="U38" s="1">
+      <c r="U38" s="3">
         <v>1.88870811939239</v>
       </c>
-      <c r="V38" s="1">
+      <c r="V38" s="3">
         <v>1.12427893161773</v>
       </c>
-      <c r="W38" s="1">
+      <c r="W38" s="3">
         <v>1.4260295343399001</v>
       </c>
-      <c r="X38" s="1">
+      <c r="X38" s="3">
         <v>1.8438166332244801</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
         <v>2.1838359697216502E-199</v>
       </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
         <v>7.5111103958175403E-201</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="3">
         <v>3.60303395850698E-2</v>
       </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
         <v>8.3027437210010104E-4</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="3">
         <v>-12569.389129032499</v>
       </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
         <v>2.88166749565553E-5</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39" s="3">
         <v>3.99247232427125E-4</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="3">
         <v>0.99800398972438498</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39" s="3">
         <v>1.67443377141677E-3</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39" s="3">
         <v>-1.0315889480112399</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R39" s="3">
         <v>0.39797156513697002</v>
       </c>
-      <c r="S39" s="1">
+      <c r="S39" s="3">
         <v>30.000832327428899</v>
       </c>
-      <c r="T39" s="1">
+      <c r="T39" s="3">
         <v>-3.8593689106050499</v>
       </c>
-      <c r="U39" s="1">
+      <c r="U39" s="3">
         <v>-3.0515637408489198</v>
       </c>
-      <c r="V39" s="1">
+      <c r="V39" s="3">
         <v>-10.144801356136201</v>
       </c>
-      <c r="W39" s="1">
+      <c r="W39" s="3">
         <v>-10.3941787098825</v>
       </c>
-      <c r="X39" s="1">
+      <c r="X39" s="3">
         <v>-10.521152424821</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
         <v>1.3968386878013201E-229</v>
       </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
         <v>3.9704321099846899E-230</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="4">
         <v>3.7260464351530298E-26</v>
       </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
         <v>1.56016427089273E-5</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="3">
         <v>-12569.486618172999</v>
       </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
         <v>1.52991371472071E-27</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="4">
         <v>1.9881503665625099E-20</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="3">
         <v>0.99800383779444901</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="3">
         <v>3.0914331662595099E-4</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40" s="3">
         <v>-1.03162845348976</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R40" s="3">
         <v>0.397887376191917</v>
       </c>
-      <c r="S40" s="1">
+      <c r="S40" s="3">
         <v>3.0000000000102802</v>
       </c>
-      <c r="T40" s="1">
+      <c r="T40" s="3">
         <v>-3.8627817434232199</v>
       </c>
-      <c r="U40" s="1">
+      <c r="U40" s="3">
         <v>-3.3217897407591299</v>
       </c>
-      <c r="V40" s="1">
+      <c r="V40" s="3">
         <v>-10.1531996050954</v>
       </c>
-      <c r="W40" s="1">
+      <c r="W40" s="3">
         <v>-10.4029315000893</v>
       </c>
-      <c r="X40" s="1">
+      <c r="X40" s="3">
         <v>-10.536402451702401</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>7.8292198044134596E-3</v>
       </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>1.7570942144389001E-4</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="3">
         <v>1.6127912736816699E-2</v>
       </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="2">
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
         <v>6.2868828241877002E-6</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="4">
         <v>6.7737420180428597E-5</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="4">
         <v>2.31608464011395E-8</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="3">
         <v>4.2701200001239498E-4</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41" s="4">
         <v>5.7078370247706402E-6</v>
       </c>
-      <c r="R41" s="2">
+      <c r="R41" s="4">
         <v>2.0497031281556102E-5</v>
       </c>
-      <c r="S41" s="1">
+      <c r="S41" s="3">
         <v>3.7801143635236398</v>
       </c>
-      <c r="T41" s="1">
+      <c r="T41" s="3">
         <v>7.5200619380072801E-4</v>
       </c>
-      <c r="U41" s="1">
+      <c r="U41" s="3">
         <v>7.5339218048627796E-2</v>
       </c>
-      <c r="V41" s="1">
+      <c r="V41" s="3">
         <v>1.47345562340352E-3</v>
       </c>
-      <c r="W41" s="1">
+      <c r="W41" s="3">
         <v>1.42218418843189E-3</v>
       </c>
-      <c r="X41" s="1">
+      <c r="X41" s="3">
         <v>2.88885078513195E-3</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="P43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="Q43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R43" s="1" t="s">
+      <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="S43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T43" s="1" t="s">
+      <c r="T43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U43" s="1" t="s">
+      <c r="U43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V43" s="1" t="s">
+      <c r="V43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W43" s="1" t="s">
+      <c r="W43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X43" s="1" t="s">
+      <c r="X43" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="1">
-        <v>0</v>
-      </c>
-      <c r="C44" s="2">
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="6">
         <v>3.59918207998048E-196</v>
       </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2">
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
         <v>6.4125492536030695E-200</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="2">
         <v>1.02270570901367E-2</v>
       </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>2.09543962993317E-4</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="8">
         <v>-12569.4803192863</v>
       </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
         <v>1.5643931819601899E-6</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="4">
         <v>2.3466430679615399E-5</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44" s="3">
         <v>0.99800384305739098</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44" s="3">
         <v>4.4480778188872702E-4</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44" s="3">
         <v>-1.0316281704476999</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R44" s="3">
         <v>0.40683306034448102</v>
       </c>
-      <c r="S44" s="1">
+      <c r="S44" s="3">
         <v>3.0000615971495601</v>
       </c>
-      <c r="T44" s="1">
+      <c r="T44" s="7">
         <v>-3.8619100485136402</v>
       </c>
-      <c r="U44" s="1">
+      <c r="U44" s="7">
         <v>-3.2594176027463901</v>
       </c>
-      <c r="V44" s="1">
+      <c r="V44" s="3">
         <v>-10.1523906523057</v>
       </c>
-      <c r="W44" s="1">
+      <c r="W44" s="3">
         <v>-10.402517910635799</v>
       </c>
-      <c r="X44" s="1">
+      <c r="X44" s="3">
         <v>-10.5357729117662</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="3">
         <v>0.36326313495635898</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="3">
         <v>0.36753821849822998</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="3">
         <v>0.52308928966522195</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="3">
         <v>0.36301419734954798</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="3">
         <v>0.37311699390411301</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="3">
         <v>0.40424780368804902</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="3">
         <v>0.40150748729705799</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="3">
         <v>0.37663527011871301</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="3">
         <v>0.37432104587554899</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="3">
         <v>0.38208559036254802</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45" s="3">
         <v>0.38518822669982899</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="3">
         <v>0.44009247303009003</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45" s="3">
         <v>0.42796849727630598</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45" s="3">
         <v>1.0335935211181599</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45" s="3">
         <v>0.87332776069641105</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45" s="3">
         <v>0.348125939369201</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R45" s="3">
         <v>0.34369152545928899</v>
       </c>
-      <c r="S45" s="1">
+      <c r="S45" s="3">
         <v>0.356778683662414</v>
       </c>
-      <c r="T45" s="1">
+      <c r="T45" s="3">
         <v>1.7329991960525499</v>
       </c>
-      <c r="U45" s="1">
+      <c r="U45" s="3">
         <v>1.73885397911071</v>
       </c>
-      <c r="V45" s="1">
+      <c r="V45" s="3">
         <v>1.0186566781997599</v>
       </c>
-      <c r="W45" s="1">
+      <c r="W45" s="3">
         <v>1.2791839313507001</v>
       </c>
-      <c r="X45" s="1">
+      <c r="X45" s="3">
         <v>1.6714689445495601</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="1">
-        <v>0</v>
-      </c>
-      <c r="C46" s="2">
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
         <v>1.7995886531299999E-194</v>
       </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
         <v>3.20624843597273E-198</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="3">
         <v>0.11294566086256499</v>
       </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>9.7829195367436805E-4</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="3">
         <v>-12569.4249280318</v>
       </c>
-      <c r="J46" s="1">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
         <v>2.6105557499673401E-5</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46" s="3">
         <v>2.7913275037034E-4</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46" s="3">
         <v>0.99800401365701796</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46" s="3">
         <v>1.67440975636993E-3</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46" s="3">
         <v>-1.0316245219417</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R46" s="3">
         <v>0.84452790685841095</v>
       </c>
-      <c r="S46" s="1">
+      <c r="S46" s="3">
         <v>3.0013596798743101</v>
       </c>
-      <c r="T46" s="1">
+      <c r="T46" s="3">
         <v>-3.8538338132979</v>
       </c>
-      <c r="U46" s="1">
+      <c r="U46" s="3">
         <v>-3.0651896671061398</v>
       </c>
-      <c r="V46" s="1">
+      <c r="V46" s="3">
         <v>-10.143785536563501</v>
       </c>
-      <c r="W46" s="1">
+      <c r="W46" s="3">
         <v>-10.3978792302206</v>
       </c>
-      <c r="X46" s="1">
+      <c r="X46" s="3">
         <v>-10.5289431181089</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
         <v>3.6144467269367697E-226</v>
       </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
         <v>2.5267957249823001E-231</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="4">
         <v>4.38972172635593E-22</v>
       </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
         <v>1.6086302192280299E-6</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="3">
         <v>-12569.486618172999</v>
       </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2">
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
         <v>4.2412031220520898E-26</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="4">
         <v>2.8674717178063799E-26</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47" s="3">
         <v>0.99800383779444901</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47" s="3">
         <v>3.1001176648538499E-4</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47" s="3">
         <v>-1.0316284534892699</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R47" s="3">
         <v>0.39788736055163998</v>
       </c>
-      <c r="S47" s="1">
+      <c r="S47" s="3">
         <v>3.0000000000000999</v>
       </c>
-      <c r="T47" s="1">
+      <c r="T47" s="3">
         <v>-3.8627787897212502</v>
       </c>
-      <c r="U47" s="1">
+      <c r="U47" s="3">
         <v>-3.3217414024913698</v>
       </c>
-      <c r="V47" s="1">
+      <c r="V47" s="3">
         <v>-10.1531995174767</v>
       </c>
-      <c r="W47" s="1">
+      <c r="W47" s="3">
         <v>-10.4029217483663</v>
       </c>
-      <c r="X47" s="1">
+      <c r="X47" s="3">
         <v>-10.536374771641199</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="1">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>2.3308560413964001E-2</v>
       </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1">
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>2.21436096231389E-4</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="3">
         <v>1.28948881088373E-2</v>
       </c>
-      <c r="J48" s="1">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0</v>
-      </c>
-      <c r="M48" s="2">
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
         <v>3.8566434864655903E-6</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="4">
         <v>4.8632129886965398E-5</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O48" s="4">
         <v>2.54579792798818E-8</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P48" s="3">
         <v>2.6668374179525899E-4</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="Q48" s="4">
         <v>6.4878230708506203E-7</v>
       </c>
-      <c r="R48" s="2">
+      <c r="R48" s="4">
         <v>6.2527838929671897E-2</v>
       </c>
-      <c r="S48" s="1">
+      <c r="S48" s="3">
         <v>2.18712532473593E-4</v>
       </c>
-      <c r="T48" s="1">
+      <c r="T48" s="3">
         <v>1.44156519246217E-3</v>
       </c>
-      <c r="U48" s="1">
+      <c r="U48" s="3">
         <v>8.6568624690545506E-2</v>
       </c>
-      <c r="V48" s="1">
+      <c r="V48" s="3">
         <v>1.90409057356498E-3</v>
       </c>
-      <c r="W48" s="1">
+      <c r="W48" s="3">
         <v>8.2915732618976602E-4</v>
       </c>
-      <c r="X48" s="1">
+      <c r="X48" s="3">
         <v>1.3867059448775801E-3</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="M50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="N50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="O50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="P50" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="Q50" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R50" s="1" t="s">
+      <c r="R50" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S50" s="1" t="s">
+      <c r="S50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T50" s="1" t="s">
+      <c r="T50" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U50" s="1" t="s">
+      <c r="U50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V50" s="1" t="s">
+      <c r="V50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W50" s="1" t="s">
+      <c r="W50" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X50" s="1" t="s">
+      <c r="X50" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="1">
-        <v>0</v>
-      </c>
-      <c r="C51" s="2">
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4">
         <v>3.0844121272764199E-196</v>
       </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
         <v>1.17718384793196E-191</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="3">
         <v>4.8278856886175298E-3</v>
       </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
         <v>1.52247135661813E-4</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="3">
         <v>-12569.4816588127</v>
       </c>
-      <c r="J51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2">
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L51" s="1">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
         <v>1.5560974554196301E-6</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="6">
         <v>2.7957141304030698E-5</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O51" s="3">
         <v>0.99800384081315896</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P51" s="3">
         <v>4.2163807527279901E-4</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51" s="7">
         <v>-1.0316274096943101</v>
       </c>
-      <c r="R51" s="1">
+      <c r="R51" s="7">
         <v>0.41571591592752899</v>
       </c>
-      <c r="S51" s="1">
+      <c r="S51" s="3">
         <v>3.0001525627442001</v>
       </c>
-      <c r="T51" s="1">
+      <c r="T51" s="3">
         <v>-3.86208833992072</v>
       </c>
-      <c r="U51" s="4">
+      <c r="U51" s="2">
         <v>-3.25156602854292</v>
       </c>
-      <c r="V51" s="1">
+      <c r="V51" s="3">
         <v>-10.152801533865199</v>
       </c>
-      <c r="W51" s="1">
+      <c r="W51" s="3">
         <v>-10.4021875263764</v>
       </c>
-      <c r="X51" s="1">
+      <c r="X51" s="3">
         <v>-10.5357036879972</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="3">
         <v>0.40337946891784598</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="3">
         <v>0.39496211528778002</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="3">
         <v>0.56543552875518799</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="3">
         <v>0.38833884239196698</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="3">
         <v>0.40479415893554599</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="3">
         <v>0.43451529026031399</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="3">
         <v>0.427255578041076</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="3">
         <v>0.40423710823059</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="3">
         <v>0.39446941375732397</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="3">
         <v>0.41294311046600302</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52" s="3">
         <v>0.41111219882965</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" s="3">
         <v>0.47517937660217202</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N52" s="3">
         <v>0.460142827033996</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O52" s="3">
         <v>1.10141471385955</v>
       </c>
-      <c r="P52" s="1">
+      <c r="P52" s="3">
         <v>0.96208425045013402</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q52" s="3">
         <v>0.37866992950439399</v>
       </c>
-      <c r="R52" s="1">
+      <c r="R52" s="3">
         <v>0.36510149955749499</v>
       </c>
-      <c r="S52" s="1">
+      <c r="S52" s="3">
         <v>0.37877281188964801</v>
       </c>
-      <c r="T52" s="1">
+      <c r="T52" s="3">
         <v>1.8555529308319001</v>
       </c>
-      <c r="U52" s="1">
+      <c r="U52" s="3">
         <v>1.8751802444457999</v>
       </c>
-      <c r="V52" s="1">
+      <c r="V52" s="3">
         <v>1.09666126728057</v>
       </c>
-      <c r="W52" s="1">
+      <c r="W52" s="3">
         <v>1.3736267089843699</v>
       </c>
-      <c r="X52" s="1">
+      <c r="X52" s="3">
         <v>1.8035951805114701</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="1">
-        <v>0</v>
-      </c>
-      <c r="C53" s="2">
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4">
         <v>1.5419141630323399E-194</v>
       </c>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
         <v>5.8859122503211103E-190</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="3">
         <v>4.6169496992404503E-2</v>
       </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1">
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
         <v>9.1530915261282201E-4</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="3">
         <v>-12569.4317531457</v>
       </c>
-      <c r="J53" s="1">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L53" s="1">
-        <v>0</v>
-      </c>
-      <c r="M53" s="2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
         <v>1.19552843369351E-5</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N53" s="3">
         <v>1.8756637714994901E-4</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53" s="3">
         <v>0.99800396542121494</v>
       </c>
-      <c r="P53" s="1">
+      <c r="P53" s="3">
         <v>1.67443311350516E-3</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="Q53" s="3">
         <v>-1.0315984081871501</v>
       </c>
-      <c r="R53" s="1">
+      <c r="R53" s="3">
         <v>0.844674129644579</v>
       </c>
-      <c r="S53" s="1">
+      <c r="S53" s="3">
         <v>3.0073240851027201</v>
       </c>
-      <c r="T53" s="1">
+      <c r="T53" s="3">
         <v>-3.8575129959210801</v>
       </c>
-      <c r="U53" s="1">
+      <c r="U53" s="3">
         <v>-3.0436261399612201</v>
       </c>
-      <c r="V53" s="1">
+      <c r="V53" s="3">
         <v>-10.1494585386298</v>
       </c>
-      <c r="W53" s="1">
+      <c r="W53" s="3">
         <v>-10.3924551700275</v>
       </c>
-      <c r="X53" s="1">
+      <c r="X53" s="3">
         <v>-10.5246609840743</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="1">
-        <v>0</v>
-      </c>
-      <c r="C54" s="2">
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4">
         <v>5.5248779731607005E-228</v>
       </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
         <v>4.9076614907065198E-235</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="4">
         <v>9.20842881342726E-26</v>
       </c>
-      <c r="G54" s="1">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2">
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
         <v>3.9951174470441096E-6</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="3">
         <v>-12569.486618172999</v>
       </c>
-      <c r="J54" s="1">
-        <v>0</v>
-      </c>
-      <c r="K54" s="2">
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L54" s="1">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
         <v>8.5725203413107496E-25</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N54" s="4">
         <v>6.6322429012838102E-28</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O54" s="3">
         <v>0.99800383779444901</v>
       </c>
-      <c r="P54" s="1">
+      <c r="P54" s="3">
         <v>3.0764553245080897E-4</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="Q54" s="3">
         <v>-1.03162845347526</v>
       </c>
-      <c r="R54" s="1">
+      <c r="R54" s="3">
         <v>0.39788736180121898</v>
       </c>
-      <c r="S54" s="1">
+      <c r="S54" s="3">
         <v>3.0000000000133</v>
       </c>
-      <c r="T54" s="1">
+      <c r="T54" s="3">
         <v>-3.8627797333631002</v>
       </c>
-      <c r="U54" s="1">
+      <c r="U54" s="3">
         <v>-3.3219467356562902</v>
       </c>
-      <c r="V54" s="1">
+      <c r="V54" s="3">
         <v>-10.153199610268899</v>
       </c>
-      <c r="W54" s="1">
+      <c r="W54" s="3">
         <v>-10.4029285018542</v>
       </c>
-      <c r="X54" s="1">
+      <c r="X54" s="3">
         <v>-10.5363976328651</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="1">
-        <v>0</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1">
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
         <v>9.6010331095463704E-3</v>
       </c>
-      <c r="G55" s="1">
-        <v>0</v>
-      </c>
-      <c r="H55" s="1">
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
         <v>1.75661188054461E-4</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="3">
         <v>1.0789673336035401E-2</v>
       </c>
-      <c r="J55" s="1">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
-        <v>0</v>
-      </c>
-      <c r="L55" s="1">
-        <v>0</v>
-      </c>
-      <c r="M55" s="2">
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0</v>
+      </c>
+      <c r="M55" s="4">
         <v>2.19065805440618E-6</v>
       </c>
-      <c r="N55" s="2">
+      <c r="N55" s="4">
         <v>4.0207506074591497E-5</v>
       </c>
-      <c r="O55" s="2">
+      <c r="O55" s="4">
         <v>1.78537572293325E-8</v>
       </c>
-      <c r="P55" s="1">
+      <c r="P55" s="3">
         <v>2.6290709512364702E-4</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="Q55" s="4">
         <v>4.2445676832507096E-6</v>
       </c>
-      <c r="R55" s="1">
+      <c r="R55" s="3">
         <v>8.7257738943835095E-2</v>
       </c>
-      <c r="S55" s="1">
+      <c r="S55" s="3">
         <v>1.0245813838898701E-3</v>
       </c>
-      <c r="T55" s="1">
+      <c r="T55" s="3">
         <v>1.0140282848343501E-3</v>
       </c>
-      <c r="U55" s="1">
+      <c r="U55" s="3">
         <v>8.9466972942009698E-2</v>
       </c>
-      <c r="V55" s="1">
+      <c r="V55" s="3">
         <v>7.4750205942993302E-4</v>
       </c>
-      <c r="W55" s="1">
+      <c r="W55" s="3">
         <v>1.72402170643908E-3</v>
       </c>
-      <c r="X55" s="1">
+      <c r="X55" s="3">
         <v>1.7753166317475699E-3</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="K57" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="L57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="N57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="O57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="P57" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="Q57" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R57" s="1" t="s">
+      <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S57" s="1" t="s">
+      <c r="S57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T57" s="1" t="s">
+      <c r="T57" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U57" s="1" t="s">
+      <c r="U57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V57" s="1" t="s">
+      <c r="V57" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W57" s="1" t="s">
+      <c r="W57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X57" s="1" t="s">
+      <c r="X57" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="1">
-        <v>0</v>
-      </c>
-      <c r="C58" s="2">
+      <c r="B58" s="3">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4">
         <v>1.17377646022722E-197</v>
       </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
         <v>3.5938669028966103E-198</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="3">
         <v>5.9199946039797998E-3</v>
       </c>
-      <c r="G58" s="1">
-        <v>0</v>
-      </c>
-      <c r="H58" s="1">
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>2.0603292718055399E-4</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="3">
         <v>-12569.482693890001</v>
       </c>
-      <c r="J58" s="1">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2">
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L58" s="1">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5">
         <v>3.7090102085634499E-6</v>
       </c>
-      <c r="N58" s="2">
+      <c r="N58" s="4">
         <v>2.7850884835435498E-5</v>
       </c>
-      <c r="O58" s="4">
+      <c r="O58" s="2">
         <v>0.99800418845184202</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P58" s="3">
         <v>4.4004121981343401E-4</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="Q58" s="3">
         <v>-1.03162762538617</v>
       </c>
-      <c r="R58" s="4">
+      <c r="R58" s="2">
         <v>0.42465613695501098</v>
       </c>
-      <c r="S58" s="1">
+      <c r="S58" s="3">
         <v>3.5401672635893702</v>
       </c>
-      <c r="T58" s="1">
+      <c r="T58" s="3">
         <v>-3.8619928419765102</v>
       </c>
-      <c r="U58" s="1">
+      <c r="U58" s="3">
         <v>-3.29504746927894</v>
       </c>
-      <c r="V58" s="1">
+      <c r="V58" s="3">
         <v>-10.1526499934151</v>
       </c>
-      <c r="W58" s="1">
+      <c r="W58" s="3">
         <v>-10.4023576321599</v>
       </c>
-      <c r="X58" s="1">
+      <c r="X58" s="3">
         <v>-10.5357095350102</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="3">
         <v>0.43087471961975099</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="3">
         <v>0.437325625419616</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="3">
         <v>0.602730340957641</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="3">
         <v>0.41207469463348301</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="3">
         <v>0.42587907314300499</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="3">
         <v>0.47048636436462399</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="3">
         <v>0.45633201122283901</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="3">
         <v>0.43112171173095698</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="3">
         <v>0.42888198852539</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59" s="3">
         <v>0.430415406227111</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L59" s="3">
         <v>0.44074525833129802</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59" s="3">
         <v>0.49879869461059501</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N59" s="3">
         <v>0.48847878932952798</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O59" s="3">
         <v>1.1494996261596599</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P59" s="3">
         <v>0.98452330589294401</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q59" s="3">
         <v>0.397075510025024</v>
       </c>
-      <c r="R59" s="1">
+      <c r="R59" s="3">
         <v>0.39357917785644497</v>
       </c>
-      <c r="S59" s="1">
+      <c r="S59" s="3">
         <v>0.40958516120910599</v>
       </c>
-      <c r="T59" s="1">
+      <c r="T59" s="3">
         <v>1.9653586626052799</v>
       </c>
-      <c r="U59" s="1">
+      <c r="U59" s="3">
         <v>1.9906148529052701</v>
       </c>
-      <c r="V59" s="1">
+      <c r="V59" s="3">
         <v>1.1699873638153</v>
       </c>
-      <c r="W59" s="1">
+      <c r="W59" s="3">
         <v>1.48231611251831</v>
       </c>
-      <c r="X59" s="1">
+      <c r="X59" s="3">
         <v>1.89953469276428</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="1">
-        <v>0</v>
-      </c>
-      <c r="C60" s="2">
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4">
         <v>5.8673566042429798E-196</v>
       </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
         <v>1.7968962602667499E-196</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="3">
         <v>7.5737376312719207E-2</v>
       </c>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>1.26673876366297E-3</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="3">
         <v>-12569.456470662501</v>
       </c>
-      <c r="J60" s="1">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2">
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L60" s="1">
-        <v>0</v>
-      </c>
-      <c r="M60" s="2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="4">
         <v>3.5603067699624597E-5</v>
       </c>
-      <c r="N60" s="1">
+      <c r="N60" s="3">
         <v>2.7206408056398103E-4</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O60" s="3">
         <v>0.99802119063400396</v>
       </c>
-      <c r="P60" s="1">
+      <c r="P60" s="3">
         <v>1.6744331326604099E-3</v>
       </c>
-      <c r="Q60" s="1">
+      <c r="Q60" s="3">
         <v>-1.0316213078423699</v>
       </c>
-      <c r="R60" s="1">
+      <c r="R60" s="3">
         <v>0.844673766903559</v>
       </c>
-      <c r="S60" s="1">
+      <c r="S60" s="3">
         <v>30.004268441186699</v>
       </c>
-      <c r="T60" s="1">
+      <c r="T60" s="3">
         <v>-3.8562110387852</v>
       </c>
-      <c r="U60" s="1">
+      <c r="U60" s="3">
         <v>-3.06664337642514</v>
       </c>
-      <c r="V60" s="1">
+      <c r="V60" s="3">
         <v>-10.1457786174521</v>
       </c>
-      <c r="W60" s="1">
+      <c r="W60" s="3">
         <v>-10.3988806766138</v>
       </c>
-      <c r="X60" s="1">
+      <c r="X60" s="3">
         <v>-10.5306008767734</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="1">
-        <v>0</v>
-      </c>
-      <c r="C61" s="2">
+      <c r="B61" s="3">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4">
         <v>8.0346270670866205E-232</v>
       </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="E61" s="2">
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
         <v>1.08345724876017E-228</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="4">
         <v>3.36843606529372E-28</v>
       </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
-      <c r="H61" s="2">
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
         <v>9.6617831828441299E-6</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="3">
         <v>-12569.486618172999</v>
       </c>
-      <c r="J61" s="1">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2">
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L61" s="1">
-        <v>0</v>
-      </c>
-      <c r="M61" s="2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="4">
         <v>2.1337379137846001E-25</v>
       </c>
-      <c r="N61" s="2">
+      <c r="N61" s="4">
         <v>8.23425423700223E-25</v>
       </c>
-      <c r="O61" s="1">
+      <c r="O61" s="3">
         <v>0.99800383779444901</v>
       </c>
-      <c r="P61" s="1">
+      <c r="P61" s="3">
         <v>3.08299992068907E-4</v>
       </c>
-      <c r="Q61" s="1">
+      <c r="Q61" s="3">
         <v>-1.03162845348972</v>
       </c>
-      <c r="R61" s="1">
+      <c r="R61" s="3">
         <v>0.39788736993804302</v>
       </c>
-      <c r="S61" s="1">
+      <c r="S61" s="3">
         <v>3.0000000000065299</v>
       </c>
-      <c r="T61" s="1">
+      <c r="T61" s="3">
         <v>-3.8627816323288102</v>
       </c>
-      <c r="U61" s="1">
+      <c r="U61" s="3">
         <v>-3.3218777595822799</v>
       </c>
-      <c r="V61" s="1">
+      <c r="V61" s="3">
         <v>-10.153199178702399</v>
       </c>
-      <c r="W61" s="1">
+      <c r="W61" s="3">
         <v>-10.402894525834</v>
       </c>
-      <c r="X61" s="1">
+      <c r="X61" s="3">
         <v>-10.5363553931561</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="1">
-        <v>0</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1">
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>1.4403403860883001E-2</v>
       </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1">
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>2.4626718871583597E-4</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="3">
         <v>7.8201208039823892E-3</v>
       </c>
-      <c r="J62" s="1">
-        <v>0</v>
-      </c>
-      <c r="K62" s="1">
-        <v>0</v>
-      </c>
-      <c r="L62" s="1">
-        <v>0</v>
-      </c>
-      <c r="M62" s="2">
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="4">
         <v>7.4996409362946696E-6</v>
       </c>
-      <c r="N62" s="2">
+      <c r="N62" s="4">
         <v>5.3113523120022998E-5</v>
       </c>
-      <c r="O62" s="2">
+      <c r="O62" s="4">
         <v>2.4289997889670101E-6</v>
       </c>
-      <c r="P62" s="1">
+      <c r="P62" s="3">
         <v>2.6923719949106697E-4</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="Q62" s="4">
         <v>1.7120336804871899E-6</v>
       </c>
-      <c r="R62" s="1">
+      <c r="R62" s="3">
         <v>0.105863856705101</v>
       </c>
-      <c r="S62" s="1">
+      <c r="S62" s="3">
         <v>3.7805858877102998</v>
       </c>
-      <c r="T62" s="1">
+      <c r="T62" s="3">
         <v>1.2037029540662499E-3</v>
       </c>
-      <c r="U62" s="1">
+      <c r="U62" s="3">
         <v>5.8747346952423299E-2</v>
       </c>
-      <c r="V62" s="1">
+      <c r="V62" s="3">
         <v>1.46801764348404E-3</v>
       </c>
-      <c r="W62" s="1">
+      <c r="W62" s="3">
         <v>9.4472249322050605E-4</v>
       </c>
-      <c r="X62" s="1">
+      <c r="X62" s="3">
         <v>1.3632668574907901E-3</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="K64" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L64" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="N64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="O64" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P64" s="1" t="s">
+      <c r="P64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="Q64" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R64" s="1" t="s">
+      <c r="R64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S64" s="1" t="s">
+      <c r="S64" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T64" s="1" t="s">
+      <c r="T64" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U64" s="1" t="s">
+      <c r="U64" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V64" s="1" t="s">
+      <c r="V64" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W64" s="1" t="s">
+      <c r="W64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X64" s="1" t="s">
+      <c r="X64" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="1">
-        <v>0</v>
-      </c>
-      <c r="C65" s="2">
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4">
         <v>2.6357736866253898E-196</v>
       </c>
-      <c r="D65" s="1">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2">
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
         <v>4.7589300586602498E-201</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="3">
         <v>3.1224101333283201E-3</v>
       </c>
-      <c r="G65" s="1">
-        <v>0</v>
-      </c>
-      <c r="H65" s="1">
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
         <v>2.2152463000360599E-4</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="3">
         <v>-12569.4820955497</v>
       </c>
-      <c r="J65" s="1">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2">
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L65" s="1">
-        <v>0</v>
-      </c>
-      <c r="M65" s="2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="4">
         <v>2.6215834928250502E-6</v>
       </c>
-      <c r="N65" s="2">
+      <c r="N65" s="4">
         <v>2.46732893799831E-5</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O65" s="3">
         <v>0.99800383865432596</v>
       </c>
-      <c r="P65" s="1">
+      <c r="P65" s="3">
         <v>4.6918518079966799E-4</v>
       </c>
-      <c r="Q65" s="1">
+      <c r="Q65" s="3">
         <v>-1.0316277457415199</v>
       </c>
-      <c r="R65" s="1">
+      <c r="R65" s="3">
         <v>0.397911080916931</v>
       </c>
-      <c r="S65" s="1">
+      <c r="S65" s="3">
         <v>3.5935338894847</v>
       </c>
-      <c r="T65" s="1">
+      <c r="T65" s="3">
         <v>-3.86204586658181</v>
       </c>
-      <c r="U65" s="1">
+      <c r="U65" s="3">
         <v>-3.27833046281977</v>
       </c>
-      <c r="V65" s="1">
+      <c r="V65" s="3">
         <v>-10.152517068922499</v>
       </c>
-      <c r="W65" s="1">
+      <c r="W65" s="3">
         <v>-10.4020771909606</v>
       </c>
-      <c r="X65" s="1">
+      <c r="X65" s="7">
         <v>-10.5353472829732</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="3">
         <v>0.37459632396698</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="3">
         <v>0.380558619499206</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="3">
         <v>0.54572736740112304</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="3">
         <v>0.375269894599914</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="3">
         <v>0.38405878067016602</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="3">
         <v>0.41930300235748202</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="3">
         <v>0.41676736354827798</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="3">
         <v>0.38611545562744098</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66" s="3">
         <v>0.38313239574432301</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66" s="3">
         <v>0.39227177619934001</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L66" s="3">
         <v>0.39583282470703102</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M66" s="3">
         <v>0.452345662117004</v>
       </c>
-      <c r="N66" s="1">
+      <c r="N66" s="3">
         <v>0.43958963394165002</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O66" s="3">
         <v>1.0673702096939</v>
       </c>
-      <c r="P66" s="1">
+      <c r="P66" s="3">
         <v>0.92441287517547599</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="Q66" s="3">
         <v>0.36572419166564901</v>
       </c>
-      <c r="R66" s="1">
+      <c r="R66" s="3">
         <v>0.359813375473022</v>
       </c>
-      <c r="S66" s="1">
+      <c r="S66" s="3">
         <v>0.37214082717895502</v>
       </c>
-      <c r="T66" s="1">
+      <c r="T66" s="3">
         <v>1.83447610378265</v>
       </c>
-      <c r="U66" s="1">
+      <c r="U66" s="3">
         <v>1.85193757534027</v>
       </c>
-      <c r="V66" s="1">
+      <c r="V66" s="3">
         <v>1.0723507022857599</v>
       </c>
-      <c r="W66" s="1">
+      <c r="W66" s="3">
         <v>1.34646189689636</v>
       </c>
-      <c r="X66" s="1">
+      <c r="X66" s="3">
         <v>1.75081304073333</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="1">
-        <v>0</v>
-      </c>
-      <c r="C67" s="2">
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4">
         <v>1.3178828393327E-194</v>
       </c>
-      <c r="D67" s="1">
-        <v>0</v>
-      </c>
-      <c r="E67" s="2">
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
         <v>2.3581498928919501E-199</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="3">
         <v>4.3981469168970999E-2</v>
       </c>
-      <c r="G67" s="1">
-        <v>0</v>
-      </c>
-      <c r="H67" s="1">
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
         <v>1.7934397748704601E-3</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="3">
         <v>-12569.4071785289</v>
       </c>
-      <c r="J67" s="1">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2">
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L67" s="1">
-        <v>0</v>
-      </c>
-      <c r="M67" s="2">
+      <c r="L67" s="3">
+        <v>0</v>
+      </c>
+      <c r="M67" s="4">
         <v>2.45357298704447E-5</v>
       </c>
-      <c r="N67" s="1">
+      <c r="N67" s="3">
         <v>2.4682784907883299E-4</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O67" s="3">
         <v>0.99800385784367496</v>
       </c>
-      <c r="P67" s="1">
+      <c r="P67" s="3">
         <v>1.6744331326604099E-3</v>
       </c>
-      <c r="Q67" s="1">
+      <c r="Q67" s="3">
         <v>-1.0316189079745699</v>
       </c>
-      <c r="R67" s="1">
+      <c r="R67" s="3">
         <v>0.39814442120686999</v>
       </c>
-      <c r="S67" s="1">
+      <c r="S67" s="3">
         <v>32.671853291174799</v>
       </c>
-      <c r="T67" s="1">
+      <c r="T67" s="3">
         <v>-3.85852158902664</v>
       </c>
-      <c r="U67" s="1">
+      <c r="U67" s="3">
         <v>-3.0910901383639402</v>
       </c>
-      <c r="V67" s="1">
+      <c r="V67" s="3">
         <v>-10.145135121213899</v>
       </c>
-      <c r="W67" s="1">
+      <c r="W67" s="3">
         <v>-10.390714795573301</v>
       </c>
-      <c r="X67" s="1">
+      <c r="X67" s="3">
         <v>-10.524692519052399</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="1">
-        <v>0</v>
-      </c>
-      <c r="C68" s="2">
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
+      <c r="C68" s="4">
         <v>1.3356866188765599E-229</v>
       </c>
-      <c r="D68" s="1">
-        <v>0</v>
-      </c>
-      <c r="E68" s="2">
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
         <v>2.7313760453720798E-228</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="4">
         <v>1.62077045540395E-24</v>
       </c>
-      <c r="G68" s="1">
-        <v>0</v>
-      </c>
-      <c r="H68" s="2">
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
         <v>1.7753214220911098E-5</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="3">
         <v>-12569.486618172999</v>
       </c>
-      <c r="J68" s="1">
-        <v>0</v>
-      </c>
-      <c r="K68" s="2">
+      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L68" s="1">
-        <v>0</v>
-      </c>
-      <c r="M68" s="2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="4">
         <v>1.1666904734611301E-22</v>
       </c>
-      <c r="N68" s="2">
+      <c r="N68" s="4">
         <v>1.8141800865312601E-26</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O68" s="3">
         <v>0.99800383779444901</v>
       </c>
-      <c r="P68" s="1">
+      <c r="P68" s="3">
         <v>3.13473047834136E-4</v>
       </c>
-      <c r="Q68" s="1">
+      <c r="Q68" s="3">
         <v>-1.0316284534867901</v>
       </c>
-      <c r="R68" s="1">
+      <c r="R68" s="3">
         <v>0.39788737089882098</v>
       </c>
-      <c r="S68" s="1">
+      <c r="S68" s="3">
         <v>3.0000000000001101</v>
       </c>
-      <c r="T68" s="1">
+      <c r="T68" s="3">
         <v>-3.8627821211322502</v>
       </c>
-      <c r="U68" s="1">
+      <c r="U68" s="3">
         <v>-3.3219216355113699</v>
       </c>
-      <c r="V68" s="1">
+      <c r="V68" s="3">
         <v>-10.153199308665901</v>
       </c>
-      <c r="W68" s="1">
+      <c r="W68" s="3">
         <v>-10.402939328846299</v>
       </c>
-      <c r="X68" s="1">
+      <c r="X68" s="3">
         <v>-10.536408844555</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="1">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1">
-        <v>0</v>
-      </c>
-      <c r="F69" s="1">
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
         <v>7.4317768342120104E-3</v>
       </c>
-      <c r="G69" s="1">
-        <v>0</v>
-      </c>
-      <c r="H69" s="1">
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
         <v>2.8581273272304801E-4</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="3">
         <v>1.18853586943353E-2</v>
       </c>
-      <c r="J69" s="1">
-        <v>0</v>
-      </c>
-      <c r="K69" s="1">
-        <v>0</v>
-      </c>
-      <c r="L69" s="1">
-        <v>0</v>
-      </c>
-      <c r="M69" s="2">
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="4">
         <v>4.8931339257369897E-6</v>
       </c>
-      <c r="N69" s="2">
+      <c r="N69" s="4">
         <v>4.9398786041387697E-5</v>
       </c>
-      <c r="O69" s="2">
+      <c r="O69" s="4">
         <v>2.92028128884721E-9</v>
       </c>
-      <c r="P69" s="1">
+      <c r="P69" s="3">
         <v>3.14017661762271E-4</v>
       </c>
-      <c r="Q69" s="2">
+      <c r="Q69" s="4">
         <v>1.58501761821349E-6</v>
       </c>
-      <c r="R69" s="2">
+      <c r="R69" s="4">
         <v>5.2919870350271603E-5</v>
       </c>
-      <c r="S69" s="1">
+      <c r="S69" s="3">
         <v>4.1540456650738697</v>
       </c>
-      <c r="T69" s="1">
+      <c r="T69" s="3">
         <v>1.01221787917317E-3</v>
       </c>
-      <c r="U69" s="1">
+      <c r="U69" s="3">
         <v>7.4176081477224404E-2</v>
       </c>
-      <c r="V69" s="1">
+      <c r="V69" s="3">
         <v>1.3532175751658499E-3</v>
       </c>
-      <c r="W69" s="1">
+      <c r="W69" s="3">
         <v>2.2671494292798699E-3</v>
       </c>
-      <c r="X69" s="1">
+      <c r="X69" s="3">
         <v>2.4110136399210602E-3</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="K71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="L71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="M71" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N71" s="1" t="s">
+      <c r="N71" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O71" s="1" t="s">
+      <c r="O71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P71" s="1" t="s">
+      <c r="P71" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q71" s="1" t="s">
+      <c r="Q71" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R71" s="1" t="s">
+      <c r="R71" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S71" s="1" t="s">
+      <c r="S71" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T71" s="1" t="s">
+      <c r="T71" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U71" s="1" t="s">
+      <c r="U71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V71" s="1" t="s">
+      <c r="V71" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W71" s="1" t="s">
+      <c r="W71" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X71" s="1" t="s">
+      <c r="X71" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="1">
-        <v>0</v>
-      </c>
-      <c r="C72" s="2">
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4">
         <v>5.4968341763162296E-197</v>
       </c>
-      <c r="D72" s="1">
-        <v>0</v>
-      </c>
-      <c r="E72" s="2">
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="5">
         <v>3.6127681978308399E-192</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="3">
         <v>2.7414190207113399E-3</v>
       </c>
-      <c r="G72" s="1">
-        <v>0</v>
-      </c>
-      <c r="H72" s="1">
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
         <v>1.68399016375789E-4</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="3">
         <v>-12569.483395724101</v>
       </c>
-      <c r="J72" s="1">
-        <v>0</v>
-      </c>
-      <c r="K72" s="2">
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L72" s="1">
-        <v>0</v>
-      </c>
-      <c r="M72" s="2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="4">
         <v>1.53387745979144E-6</v>
       </c>
-      <c r="N72" s="2">
+      <c r="N72" s="4">
         <v>2.6574293439365902E-5</v>
       </c>
-      <c r="O72" s="1">
+      <c r="O72" s="3">
         <v>0.99800383804676096</v>
       </c>
-      <c r="P72" s="1">
+      <c r="P72" s="8">
         <v>5.2058864360214803E-4</v>
       </c>
-      <c r="Q72" s="1">
+      <c r="Q72" s="3">
         <v>-1.03162774988188</v>
       </c>
-      <c r="R72" s="1">
+      <c r="R72" s="3">
         <v>0.39789853700134398</v>
       </c>
-      <c r="S72" s="1">
+      <c r="S72" s="3">
         <v>3.0000642978732599</v>
       </c>
-      <c r="T72" s="4">
+      <c r="T72" s="2">
         <v>-3.8617885406797701</v>
       </c>
-      <c r="U72" s="1">
+      <c r="U72" s="3">
         <v>-3.2690968131893201</v>
       </c>
-      <c r="V72" s="1">
+      <c r="V72" s="3">
         <v>-10.152107025046501</v>
       </c>
-      <c r="W72" s="4">
+      <c r="W72" s="2">
         <v>-10.4014593595044</v>
       </c>
-      <c r="X72" s="1">
+      <c r="X72" s="3">
         <v>-10.5355215097268</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="3">
         <v>0.41688207149505602</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="3">
         <v>0.41576652526855401</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="3">
         <v>0.60103850364684996</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="3">
         <v>0.41104497909545901</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="3">
         <v>0.42364374637603702</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="3">
         <v>0.45437268733978198</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="3">
         <v>0.45729809761047302</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="3">
         <v>0.445120759010314</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73" s="3">
         <v>0.42340567588806099</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K73" s="3">
         <v>0.43598198890686002</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L73" s="3">
         <v>0.45532496929168698</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73" s="3">
         <v>0.52128526210784898</v>
       </c>
-      <c r="N73" s="1">
+      <c r="N73" s="3">
         <v>0.49436541557312003</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O73" s="3">
         <v>1.1827007627487101</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P73" s="3">
         <v>1.01111844062805</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="Q73" s="3">
         <v>0.396157488822937</v>
       </c>
-      <c r="R73" s="1">
+      <c r="R73" s="3">
         <v>0.38735949993133501</v>
       </c>
-      <c r="S73" s="1">
+      <c r="S73" s="3">
         <v>0.39708295345306399</v>
       </c>
-      <c r="T73" s="1">
+      <c r="T73" s="3">
         <v>1.9792805337905801</v>
       </c>
-      <c r="U73" s="1">
+      <c r="U73" s="3">
         <v>2.0063882446289001</v>
       </c>
-      <c r="V73" s="1">
+      <c r="V73" s="3">
         <v>1.1709625005722</v>
       </c>
-      <c r="W73" s="1">
+      <c r="W73" s="3">
         <v>1.44952380657196</v>
       </c>
-      <c r="X73" s="1">
+      <c r="X73" s="3">
         <v>1.9045598268508901</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B74" s="1">
-        <v>0</v>
-      </c>
-      <c r="C74" s="2">
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="4">
         <v>1.40847324422562E-195</v>
       </c>
-      <c r="D74" s="1">
-        <v>0</v>
-      </c>
-      <c r="E74" s="2">
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
         <v>1.8063840970879999E-190</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="3">
         <v>3.5027381339410503E-2</v>
       </c>
-      <c r="G74" s="1">
-        <v>0</v>
-      </c>
-      <c r="H74" s="1">
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
         <v>5.52865306192952E-4</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="3">
         <v>-12569.450537459201</v>
       </c>
-      <c r="J74" s="1">
-        <v>0</v>
-      </c>
-      <c r="K74" s="2">
+      <c r="J74" s="3">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L74" s="1">
-        <v>0</v>
-      </c>
-      <c r="M74" s="2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="4">
         <v>1.7854533064442199E-5</v>
       </c>
-      <c r="N74" s="1">
+      <c r="N74" s="3">
         <v>2.24865745325037E-4</v>
       </c>
-      <c r="O74" s="1">
+      <c r="O74" s="3">
         <v>0.99800384080065097</v>
       </c>
-      <c r="P74" s="1">
+      <c r="P74" s="3">
         <v>1.6744331460608101E-3</v>
       </c>
-      <c r="Q74" s="1">
+      <c r="Q74" s="3">
         <v>-1.0316208690184601</v>
       </c>
-      <c r="R74" s="1">
+      <c r="R74" s="3">
         <v>0.39803036351256399</v>
       </c>
-      <c r="S74" s="1">
+      <c r="S74" s="3">
         <v>3.0015307761557399</v>
       </c>
-      <c r="T74" s="1">
+      <c r="T74" s="3">
         <v>-3.8576925103012099</v>
       </c>
-      <c r="U74" s="1">
+      <c r="U74" s="3">
         <v>-3.0477907878022101</v>
       </c>
-      <c r="V74" s="1">
+      <c r="V74" s="3">
         <v>-10.143760827741101</v>
       </c>
-      <c r="W74" s="1">
+      <c r="W74" s="3">
         <v>-10.3781414296271</v>
       </c>
-      <c r="X74" s="1">
+      <c r="X74" s="3">
         <v>-10.526105744274799</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="1">
-        <v>0</v>
-      </c>
-      <c r="C75" s="2">
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+      <c r="C75" s="4">
         <v>8.5625124286789494E-233</v>
       </c>
-      <c r="D75" s="1">
-        <v>0</v>
-      </c>
-      <c r="E75" s="2">
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
         <v>2.0892886266131498E-232</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="4">
         <v>1.8798816681591499E-25</v>
       </c>
-      <c r="G75" s="1">
-        <v>0</v>
-      </c>
-      <c r="H75" s="2">
+      <c r="G75" s="3">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4">
         <v>9.6617831828441299E-6</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="3">
         <v>-12569.486618172999</v>
       </c>
-      <c r="J75" s="1">
-        <v>0</v>
-      </c>
-      <c r="K75" s="2">
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
         <v>4.4408920985006202E-16</v>
       </c>
-      <c r="L75" s="1">
-        <v>0</v>
-      </c>
-      <c r="M75" s="2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="4">
         <v>2.8953668278805302E-26</v>
       </c>
-      <c r="N75" s="2">
+      <c r="N75" s="4">
         <v>2.17066507141164E-29</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O75" s="3">
         <v>0.99800383779444901</v>
       </c>
-      <c r="P75" s="1">
+      <c r="P75" s="3">
         <v>3.0963953132456497E-4</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="Q75" s="3">
         <v>-1.03162845348774</v>
       </c>
-      <c r="R75" s="1">
+      <c r="R75" s="3">
         <v>0.39788736144244802</v>
       </c>
-      <c r="S75" s="1">
+      <c r="S75" s="3">
         <v>3.0000000000394902</v>
       </c>
-      <c r="T75" s="1">
+      <c r="T75" s="3">
         <v>-3.8627743459832198</v>
       </c>
-      <c r="U75" s="1">
+      <c r="U75" s="3">
         <v>-3.3218581735594901</v>
       </c>
-      <c r="V75" s="1">
+      <c r="V75" s="3">
         <v>-10.1531993711863</v>
       </c>
-      <c r="W75" s="1">
+      <c r="W75" s="3">
         <v>-10.402897504048701</v>
       </c>
-      <c r="X75" s="1">
+      <c r="X75" s="3">
         <v>-10.5363985656114</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B76" s="1">
-        <v>0</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1">
-        <v>0</v>
-      </c>
-      <c r="F76" s="1">
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>5.8506152841923398E-3</v>
       </c>
-      <c r="G76" s="1">
-        <v>0</v>
-      </c>
-      <c r="H76" s="1">
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>1.37833415085327E-4</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="3">
         <v>6.4506378003934602E-3</v>
       </c>
-      <c r="J76" s="1">
-        <v>0</v>
-      </c>
-      <c r="K76" s="1">
-        <v>0</v>
-      </c>
-      <c r="L76" s="1">
-        <v>0</v>
-      </c>
-      <c r="M76" s="2">
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="4">
         <v>3.0770277994243699E-6</v>
       </c>
-      <c r="N76" s="2">
+      <c r="N76" s="4">
         <v>4.8029475993745E-5</v>
       </c>
-      <c r="O76" s="2">
+      <c r="O76" s="4">
         <v>5.29488343933878E-10</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P76" s="3">
         <v>3.9797336267269697E-4</v>
       </c>
-      <c r="Q76" s="2">
+      <c r="Q76" s="4">
         <v>1.60585894183486E-6</v>
       </c>
-      <c r="R76" s="2">
+      <c r="R76" s="4">
         <v>2.3704494887016399E-5</v>
       </c>
-      <c r="S76" s="1">
+      <c r="S76" s="3">
         <v>2.2818152600246E-4</v>
       </c>
-      <c r="T76" s="1">
+      <c r="T76" s="3">
         <v>1.08017210701475E-3</v>
       </c>
-      <c r="U76" s="1">
+      <c r="U76" s="3">
         <v>8.3702392810943105E-2</v>
       </c>
-      <c r="V76" s="1">
+      <c r="V76" s="3">
         <v>1.9703865181524101E-3</v>
       </c>
-      <c r="W76" s="1">
+      <c r="W76" s="3">
         <v>4.0979326292532496E-3</v>
       </c>
-      <c r="X76" s="1">
+      <c r="X76" s="3">
         <v>1.91477999117167E-3</v>
       </c>
     </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U78" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V78" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X78" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="M81" s="2"/>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
+      <c r="A79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+      <c r="C79" s="4">
+        <v>3.20371259576492E-196</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
+        <v>6.3938637630679001E-201</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2.22967638011027E-3</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0</v>
+      </c>
+      <c r="H79" s="8">
+        <v>2.4621236779614699E-4</v>
+      </c>
+      <c r="I79" s="3">
+        <v>-12569.4826460973</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
+        <v>4.4408920985006202E-16</v>
+      </c>
+      <c r="L79" s="3">
+        <v>0</v>
+      </c>
+      <c r="M79" s="4">
+        <v>3.2353271078536901E-6</v>
+      </c>
+      <c r="N79" s="4">
+        <v>2.7581477999504299E-5</v>
+      </c>
+      <c r="O79" s="3">
+        <v>0.99800383800233095</v>
+      </c>
+      <c r="P79" s="3">
+        <v>4.6855035276754503E-4</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>-1.03162783807291</v>
+      </c>
+      <c r="R79" s="3">
+        <v>0.39789361638983201</v>
+      </c>
+      <c r="S79" s="8">
+        <v>4.0800414636487696</v>
+      </c>
+      <c r="T79" s="3">
+        <v>-3.8621906334931499</v>
+      </c>
+      <c r="U79" s="3">
+        <v>-3.27100378141653</v>
+      </c>
+      <c r="V79" s="3">
+        <v>-10.152354547385301</v>
+      </c>
+      <c r="W79" s="3">
+        <v>-10.401991042339001</v>
+      </c>
+      <c r="X79" s="3">
+        <v>-10.5358366004745</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.26359306335449201</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.26676037311553902</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0.36069355964660599</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.26150310993194498</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0.26895252227783201</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0.293314056396484</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0.290919642448425</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0.270358138084411</v>
+      </c>
+      <c r="J80" s="3">
+        <v>0.267890129089355</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0.273536086082458</v>
+      </c>
+      <c r="L80" s="3">
+        <v>0.27476714611053399</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0.31569306373596101</v>
+      </c>
+      <c r="N80" s="3">
+        <v>0.30886013031005799</v>
+      </c>
+      <c r="O80" s="3">
+        <v>0.71028428554534895</v>
+      </c>
+      <c r="P80" s="3">
+        <v>0.60906770229339602</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>0.25267540931701599</v>
+      </c>
+      <c r="R80" s="3">
+        <v>0.247690014839172</v>
+      </c>
+      <c r="S80" s="3">
+        <v>0.25752508163452098</v>
+      </c>
+      <c r="T80" s="3">
+        <v>1.1757359886169401</v>
+      </c>
+      <c r="U80" s="3">
+        <v>1.1750139617919899</v>
+      </c>
+      <c r="V80" s="3">
+        <v>0.77299666881561202</v>
+      </c>
+      <c r="W80" s="3">
+        <v>0.97301935672759998</v>
+      </c>
+      <c r="X80" s="3">
+        <v>1.2834876441955501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0</v>
+      </c>
+      <c r="C81" s="4">
+        <v>1.60148776146606E-194</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1.6212030927342001E-199</v>
+      </c>
+      <c r="F81" s="3">
+        <v>2.5806404828964E-2</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1.7433231090452301E-3</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-12569.417256373799</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <v>4.4408920985006202E-16</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="4">
+        <v>5.1129649047019199E-5</v>
+      </c>
+      <c r="N81" s="3">
+        <v>3.0262445752242401E-4</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0.99800383959194805</v>
+      </c>
+      <c r="P81" s="3">
+        <v>1.6744331326593799E-3</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-1.0316240118614901</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0.39792595997527602</v>
+      </c>
+      <c r="S81" s="3">
+        <v>30.0008423615519</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-3.8587548187611702</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-3.0926693460783099</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-10.1422403936257</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-10.3914412657952</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-10.5326172724433</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+      <c r="C82" s="4">
+        <v>7.7118479631863099E-235</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>2.3566787658002099E-232</v>
+      </c>
+      <c r="F82" s="4">
+        <v>2.5337405118151001E-22</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0</v>
+      </c>
+      <c r="H82" s="4">
+        <v>1.4759462849196501E-5</v>
+      </c>
+      <c r="I82" s="3">
+        <v>-12569.486618172999</v>
+      </c>
+      <c r="J82" s="3">
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <v>4.4408920985006202E-16</v>
+      </c>
+      <c r="L82" s="3">
+        <v>0</v>
+      </c>
+      <c r="M82" s="4">
+        <v>5.0413082812664998E-30</v>
+      </c>
+      <c r="N82" s="4">
+        <v>3.8739858929692803E-30</v>
+      </c>
+      <c r="O82" s="3">
+        <v>0.99800383779444901</v>
+      </c>
+      <c r="P82" s="3">
+        <v>3.0867504975700202E-4</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>-1.03162845348976</v>
+      </c>
+      <c r="R82" s="3">
+        <v>0.39788735904021699</v>
+      </c>
+      <c r="S82" s="3">
+        <v>3.0000000001467901</v>
+      </c>
+      <c r="T82" s="3">
+        <v>-3.8627819652736202</v>
+      </c>
+      <c r="U82" s="3">
+        <v>-3.32190555162247</v>
+      </c>
+      <c r="V82" s="3">
+        <v>-10.1531996481013</v>
+      </c>
+      <c r="W82" s="3">
+        <v>-10.402920490490899</v>
+      </c>
+      <c r="X82" s="3">
+        <v>-10.536386668304001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>4.9770562574278096E-3</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>3.1340505039490499E-4</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1.0240765619532501E-2</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="4">
+        <v>7.8174387302499192E-6</v>
+      </c>
+      <c r="N83" s="4">
+        <v>5.6679280976730703E-5</v>
+      </c>
+      <c r="O83" s="4">
+        <v>4.1261899060562899E-10</v>
+      </c>
+      <c r="P83" s="3">
+        <v>3.1514794625199098E-4</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>1.23859566738958E-6</v>
+      </c>
+      <c r="R83" s="4">
+        <v>9.8602583841450807E-6</v>
+      </c>
+      <c r="S83" s="3">
+        <v>5.2909982170344296</v>
+      </c>
+      <c r="T83" s="3">
+        <v>7.3361770301575704E-4</v>
+      </c>
+      <c r="U83" s="3">
+        <v>6.9968318307129601E-2</v>
+      </c>
+      <c r="V83" s="3">
+        <v>2.1806525743645801E-3</v>
+      </c>
+      <c r="W83" s="3">
+        <v>1.9161189411921399E-3</v>
+      </c>
+      <c r="X83" s="3">
+        <v>8.8305626176465705E-4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
